--- a/Code/Results/Cases/Case_3_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9957582741921767</v>
+        <v>1.023641669795336</v>
       </c>
       <c r="D2">
-        <v>1.021151915994792</v>
+        <v>1.035515722885704</v>
       </c>
       <c r="E2">
-        <v>1.002826583456978</v>
+        <v>1.024234739284227</v>
       </c>
       <c r="F2">
-        <v>1.027837459576303</v>
+        <v>1.046515598926637</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048448154070883</v>
+        <v>1.034887709612122</v>
       </c>
       <c r="J2">
-        <v>1.01806659898362</v>
+        <v>1.028820747242331</v>
       </c>
       <c r="K2">
-        <v>1.032324230845451</v>
+        <v>1.038312105317031</v>
       </c>
       <c r="L2">
-        <v>1.01424667944406</v>
+        <v>1.027063837507516</v>
       </c>
       <c r="M2">
-        <v>1.0389221325991</v>
+        <v>1.049280817864134</v>
       </c>
       <c r="N2">
-        <v>1.010012755869041</v>
+        <v>1.013661601214851</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9998646921258173</v>
+        <v>1.024509501867758</v>
       </c>
       <c r="D3">
-        <v>1.024366342939663</v>
+        <v>1.036204942319545</v>
       </c>
       <c r="E3">
-        <v>1.006065839177316</v>
+        <v>1.024968729772146</v>
       </c>
       <c r="F3">
-        <v>1.031700931674584</v>
+        <v>1.047366565598113</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049674962109649</v>
+        <v>1.035062272103598</v>
       </c>
       <c r="J3">
-        <v>1.020359046450127</v>
+        <v>1.029327568026764</v>
       </c>
       <c r="K3">
-        <v>1.034696662788456</v>
+        <v>1.038811055226286</v>
       </c>
       <c r="L3">
-        <v>1.016621690364964</v>
+        <v>1.027605074918201</v>
       </c>
       <c r="M3">
-        <v>1.041943645162126</v>
+        <v>1.049943340577621</v>
       </c>
       <c r="N3">
-        <v>1.010776911153909</v>
+        <v>1.01382978519807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002470151130241</v>
+        <v>1.025071496332558</v>
       </c>
       <c r="D4">
-        <v>1.02640569855113</v>
+        <v>1.036650901360054</v>
       </c>
       <c r="E4">
-        <v>1.008127168650511</v>
+        <v>1.025444460184685</v>
       </c>
       <c r="F4">
-        <v>1.034153545786923</v>
+        <v>1.04791747081863</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050439165071606</v>
+        <v>1.03517355846195</v>
       </c>
       <c r="J4">
-        <v>1.021810880557702</v>
+        <v>1.029655336199618</v>
       </c>
       <c r="K4">
-        <v>1.036195542637632</v>
+        <v>1.039133221108823</v>
       </c>
       <c r="L4">
-        <v>1.018128485614078</v>
+        <v>1.027955415151753</v>
       </c>
       <c r="M4">
-        <v>1.043856527440405</v>
+        <v>1.050371666395979</v>
       </c>
       <c r="N4">
-        <v>1.011260783707898</v>
+        <v>1.01393852491798</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.003553518983903</v>
+        <v>1.02530786492205</v>
       </c>
       <c r="D5">
-        <v>1.027253590555021</v>
+        <v>1.036838377918205</v>
       </c>
       <c r="E5">
-        <v>1.008985701633163</v>
+        <v>1.025644644596885</v>
       </c>
       <c r="F5">
-        <v>1.03517362870366</v>
+        <v>1.048149134855375</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05075347209748</v>
+        <v>1.035219943246847</v>
       </c>
       <c r="J5">
-        <v>1.022413887826408</v>
+        <v>1.029793085962322</v>
       </c>
       <c r="K5">
-        <v>1.036817208174534</v>
+        <v>1.039268493550763</v>
       </c>
       <c r="L5">
-        <v>1.018754962574832</v>
+        <v>1.028102726473607</v>
       </c>
       <c r="M5">
-        <v>1.04465085676595</v>
+        <v>1.050551644209011</v>
       </c>
       <c r="N5">
-        <v>1.011461735909694</v>
+        <v>1.013984217948532</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003734730807453</v>
+        <v>1.025347558430472</v>
       </c>
       <c r="D6">
-        <v>1.027395408504611</v>
+        <v>1.03686985573534</v>
       </c>
       <c r="E6">
-        <v>1.009129388221906</v>
+        <v>1.025678267378374</v>
       </c>
       <c r="F6">
-        <v>1.035344269625129</v>
+        <v>1.048188035935351</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050805840870244</v>
+        <v>1.03522770797512</v>
       </c>
       <c r="J6">
-        <v>1.022514710547074</v>
+        <v>1.029816212140389</v>
       </c>
       <c r="K6">
-        <v>1.036921098252999</v>
+        <v>1.039291196609197</v>
       </c>
       <c r="L6">
-        <v>1.018859747198525</v>
+        <v>1.028127462314756</v>
       </c>
       <c r="M6">
-        <v>1.044783658253422</v>
+        <v>1.050581857929753</v>
       </c>
       <c r="N6">
-        <v>1.011495333837123</v>
+        <v>1.013991888756953</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002484673647301</v>
+        <v>1.025074654286002</v>
       </c>
       <c r="D7">
-        <v>1.026417064926538</v>
+        <v>1.036653406451367</v>
       </c>
       <c r="E7">
-        <v>1.008138671712126</v>
+        <v>1.025447134324544</v>
       </c>
       <c r="F7">
-        <v>1.034167218964366</v>
+        <v>1.047920566077716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050443392055023</v>
+        <v>1.035174179830526</v>
       </c>
       <c r="J7">
-        <v>1.021818966560939</v>
+        <v>1.029657176992977</v>
       </c>
       <c r="K7">
-        <v>1.036203882343382</v>
+        <v>1.039135029280182</v>
       </c>
       <c r="L7">
-        <v>1.018136883795089</v>
+        <v>1.027957383423286</v>
       </c>
       <c r="M7">
-        <v>1.043867179653563</v>
+        <v>1.050374071625427</v>
       </c>
       <c r="N7">
-        <v>1.011263478451555</v>
+        <v>1.013939135554121</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9971570038174514</v>
+        <v>1.023934863882948</v>
       </c>
       <c r="D8">
-        <v>1.022246815273655</v>
+        <v>1.035748649261907</v>
       </c>
       <c r="E8">
-        <v>1.003928643428136</v>
+        <v>1.024482630342237</v>
       </c>
       <c r="F8">
-        <v>1.029153137677542</v>
+        <v>1.04680312948708</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048868972605915</v>
+        <v>1.034947048523008</v>
       </c>
       <c r="J8">
-        <v>1.018847998006481</v>
+        <v>1.028992066004948</v>
       </c>
       <c r="K8">
-        <v>1.033133640935934</v>
+        <v>1.038480869423264</v>
       </c>
       <c r="L8">
-        <v>1.01505566042469</v>
+        <v>1.027246724907318</v>
       </c>
       <c r="M8">
-        <v>1.039952176495749</v>
+        <v>1.049504796296393</v>
       </c>
       <c r="N8">
-        <v>1.010273239018766</v>
+        <v>1.013718457448211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9873541968620044</v>
+        <v>1.021929908546331</v>
       </c>
       <c r="D9">
-        <v>1.014574869238982</v>
+        <v>1.034154336249661</v>
       </c>
       <c r="E9">
-        <v>0.9962323993117059</v>
+        <v>1.02278917071797</v>
       </c>
       <c r="F9">
-        <v>1.0199397297272</v>
+        <v>1.044836234691915</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045861669061556</v>
+        <v>1.034534082726626</v>
       </c>
       <c r="J9">
-        <v>1.013361552367411</v>
+        <v>1.027818738336733</v>
       </c>
       <c r="K9">
-        <v>1.027435823780783</v>
+        <v>1.03732294659817</v>
       </c>
       <c r="L9">
-        <v>1.009386900404712</v>
+        <v>1.02599545486541</v>
       </c>
       <c r="M9">
-        <v>1.032717375246565</v>
+        <v>1.04797025442903</v>
       </c>
       <c r="N9">
-        <v>1.008444065649014</v>
+        <v>1.013328950146036</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9805118969065761</v>
+        <v>1.020595707599092</v>
       </c>
       <c r="D10">
-        <v>1.009224256992288</v>
+        <v>1.033091553631536</v>
       </c>
       <c r="E10">
-        <v>0.9908972166064397</v>
+        <v>1.021664410349616</v>
       </c>
       <c r="F10">
-        <v>1.013520271750879</v>
+        <v>1.043526540149133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043691109480362</v>
+        <v>1.034250262658162</v>
       </c>
       <c r="J10">
-        <v>1.009520634649217</v>
+        <v>1.027035703936103</v>
       </c>
       <c r="K10">
-        <v>1.023428938237099</v>
+        <v>1.036547576028559</v>
       </c>
       <c r="L10">
-        <v>1.005432792905876</v>
+        <v>1.025162022566047</v>
       </c>
       <c r="M10">
-        <v>1.027649630271132</v>
+        <v>1.04694546107253</v>
       </c>
       <c r="N10">
-        <v>1.007163294641435</v>
+        <v>1.013068870475084</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9774694769664912</v>
+        <v>1.020018578661994</v>
       </c>
       <c r="D11">
-        <v>1.006846971693991</v>
+        <v>1.032631400560356</v>
       </c>
       <c r="E11">
-        <v>0.9885343216427852</v>
+        <v>1.021178396518055</v>
       </c>
       <c r="F11">
-        <v>1.010669301356252</v>
+        <v>1.042959822731072</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042709751011656</v>
+        <v>1.034125357537085</v>
       </c>
       <c r="J11">
-        <v>1.007810547092153</v>
+        <v>1.026696462386958</v>
       </c>
       <c r="K11">
-        <v>1.021640909086407</v>
+        <v>1.036211037162423</v>
       </c>
       <c r="L11">
-        <v>1.003675752243039</v>
+        <v>1.024801330158779</v>
       </c>
       <c r="M11">
-        <v>1.02539277666216</v>
+        <v>1.046501315385941</v>
       </c>
       <c r="N11">
-        <v>1.00659303707965</v>
+        <v>1.012956161536344</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.97632679746676</v>
+        <v>1.019804297089977</v>
       </c>
       <c r="D12">
-        <v>1.005954457379384</v>
+        <v>1.03246048677105</v>
       </c>
       <c r="E12">
-        <v>0.9876483301246719</v>
+        <v>1.020998023468486</v>
       </c>
       <c r="F12">
-        <v>1.009599107063246</v>
+        <v>1.042749378892454</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04233879701789</v>
+        <v>1.034078661166789</v>
       </c>
       <c r="J12">
-        <v>1.007167975732676</v>
+        <v>1.02657042670485</v>
       </c>
       <c r="K12">
-        <v>1.020968461647513</v>
+        <v>1.036085913035204</v>
       </c>
       <c r="L12">
-        <v>1.003016057183534</v>
+        <v>1.024667382622744</v>
       </c>
       <c r="M12">
-        <v>1.024544685401051</v>
+        <v>1.04633628087008</v>
       </c>
       <c r="N12">
-        <v>1.00637876014578</v>
+        <v>1.012914282902814</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.976572486215454</v>
+        <v>1.019850257128877</v>
       </c>
       <c r="D13">
-        <v>1.006146340713985</v>
+        <v>1.032497147989877</v>
       </c>
       <c r="E13">
-        <v>0.9878387606826627</v>
+        <v>1.021036707098711</v>
       </c>
       <c r="F13">
-        <v>1.009829183410912</v>
+        <v>1.042794517055105</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042418662405066</v>
+        <v>1.034088691306822</v>
       </c>
       <c r="J13">
-        <v>1.007306148211865</v>
+        <v>1.026597462956649</v>
       </c>
       <c r="K13">
-        <v>1.021113084712772</v>
+        <v>1.036112757931244</v>
       </c>
       <c r="L13">
-        <v>1.003157888292172</v>
+        <v>1.024696113460672</v>
       </c>
       <c r="M13">
-        <v>1.024727053939933</v>
+        <v>1.046371683980067</v>
       </c>
       <c r="N13">
-        <v>1.006424836223927</v>
+        <v>1.012923266616802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9773752832765196</v>
+        <v>1.020000864240519</v>
       </c>
       <c r="D14">
-        <v>1.006773392098206</v>
+        <v>1.032617272609291</v>
       </c>
       <c r="E14">
-        <v>0.9884612570840824</v>
+        <v>1.021163483671774</v>
       </c>
       <c r="F14">
-        <v>1.010581070612729</v>
+        <v>1.042942426138344</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042679220288009</v>
+        <v>1.034121503737161</v>
       </c>
       <c r="J14">
-        <v>1.007757584159145</v>
+        <v>1.026686044767332</v>
       </c>
       <c r="K14">
-        <v>1.021585495531859</v>
+        <v>1.036200696774945</v>
       </c>
       <c r="L14">
-        <v>1.003621367351867</v>
+        <v>1.024790257400922</v>
       </c>
       <c r="M14">
-        <v>1.025322875442106</v>
+        <v>1.046487674776531</v>
       </c>
       <c r="N14">
-        <v>1.006575375639451</v>
+        <v>1.012952700108741</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9778682255688094</v>
+        <v>1.020093670193698</v>
       </c>
       <c r="D15">
-        <v>1.007158469796707</v>
+        <v>1.03269128640361</v>
       </c>
       <c r="E15">
-        <v>0.9888436849517452</v>
+        <v>1.021241615375542</v>
       </c>
       <c r="F15">
-        <v>1.011042831157763</v>
+        <v>1.043033565842946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042838899861239</v>
+        <v>1.034141680690873</v>
       </c>
       <c r="J15">
-        <v>1.008034742537584</v>
+        <v>1.026740619498328</v>
       </c>
       <c r="K15">
-        <v>1.021875454260845</v>
+        <v>1.036254863121796</v>
       </c>
       <c r="L15">
-        <v>1.003905988100258</v>
+        <v>1.024848266560297</v>
       </c>
       <c r="M15">
-        <v>1.02568867013823</v>
+        <v>1.046559132759065</v>
       </c>
       <c r="N15">
-        <v>1.00666779906107</v>
+        <v>1.012970833276054</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9807120818482494</v>
+        <v>1.02063402226723</v>
       </c>
       <c r="D16">
-        <v>1.00938072228742</v>
+        <v>1.033122093439982</v>
       </c>
       <c r="E16">
-        <v>0.9910528909077524</v>
+        <v>1.021696687010108</v>
       </c>
       <c r="F16">
-        <v>1.013707936644433</v>
+        <v>1.043564159667016</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043755348036501</v>
+        <v>1.034258509937923</v>
       </c>
       <c r="J16">
-        <v>1.009633111954455</v>
+        <v>1.027058214533941</v>
       </c>
       <c r="K16">
-        <v>1.023546459220346</v>
+        <v>1.036569894298962</v>
       </c>
       <c r="L16">
-        <v>1.00554843033163</v>
+        <v>1.025185964627587</v>
       </c>
       <c r="M16">
-        <v>1.02779805948993</v>
+        <v>1.046974929194278</v>
       </c>
       <c r="N16">
-        <v>1.007200801866591</v>
+        <v>1.013076348678038</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9824742046193133</v>
+        <v>1.020973129451843</v>
       </c>
       <c r="D17">
-        <v>1.01075822423653</v>
+        <v>1.033392338918958</v>
       </c>
       <c r="E17">
-        <v>0.9924242863205707</v>
+        <v>1.021982414296028</v>
       </c>
       <c r="F17">
-        <v>1.015360250670663</v>
+        <v>1.043897092567674</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04431896594806</v>
+        <v>1.034331256499462</v>
       </c>
       <c r="J17">
-        <v>1.010622941674191</v>
+        <v>1.02725738546528</v>
       </c>
       <c r="K17">
-        <v>1.024580216063927</v>
+        <v>1.036767292245621</v>
       </c>
       <c r="L17">
-        <v>1.006566462012734</v>
+        <v>1.025397845259719</v>
       </c>
       <c r="M17">
-        <v>1.029104214515721</v>
+        <v>1.047235640423889</v>
       </c>
       <c r="N17">
-        <v>1.007530873145843</v>
+        <v>1.013142511170633</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9834943791402617</v>
+        <v>1.02117098166366</v>
       </c>
       <c r="D18">
-        <v>1.011555895375655</v>
+        <v>1.033549972164942</v>
       </c>
       <c r="E18">
-        <v>0.9932191380671527</v>
+        <v>1.022149171993067</v>
       </c>
       <c r="F18">
-        <v>1.016317173496943</v>
+        <v>1.044091324104147</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044643725559345</v>
+        <v>1.03437349442946</v>
       </c>
       <c r="J18">
-        <v>1.011195785466215</v>
+        <v>1.027373540815531</v>
       </c>
       <c r="K18">
-        <v>1.02517809637507</v>
+        <v>1.036882354015813</v>
       </c>
       <c r="L18">
-        <v>1.007155953636145</v>
+        <v>1.025521449826854</v>
       </c>
       <c r="M18">
-        <v>1.029860072426151</v>
+        <v>1.047387669845641</v>
       </c>
       <c r="N18">
-        <v>1.007721892987164</v>
+        <v>1.013181093658764</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9838409543075967</v>
+        <v>1.021238453736278</v>
       </c>
       <c r="D19">
-        <v>1.011826908318237</v>
+        <v>1.033603721591615</v>
       </c>
       <c r="E19">
-        <v>0.9934893150368251</v>
+        <v>1.022206048597245</v>
       </c>
       <c r="F19">
-        <v>1.016642313403463</v>
+        <v>1.044157558328754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044753789426695</v>
+        <v>1.034387863557227</v>
       </c>
       <c r="J19">
-        <v>1.01139035517054</v>
+        <v>1.027413143753637</v>
       </c>
       <c r="K19">
-        <v>1.025381103945759</v>
+        <v>1.036921573985962</v>
       </c>
       <c r="L19">
-        <v>1.007356233207702</v>
+        <v>1.025563598835536</v>
       </c>
       <c r="M19">
-        <v>1.030116794658013</v>
+        <v>1.047439501281946</v>
       </c>
       <c r="N19">
-        <v>1.007786773533879</v>
+        <v>1.01319424775528</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9822859403206837</v>
+        <v>1.020936740582841</v>
       </c>
       <c r="D20">
-        <v>1.010611034335909</v>
+        <v>1.033363343748713</v>
       </c>
       <c r="E20">
-        <v>0.992277674663257</v>
+        <v>1.021951748333884</v>
       </c>
       <c r="F20">
-        <v>1.015183684466058</v>
+        <v>1.043861368135888</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044258909105418</v>
+        <v>1.034323471532906</v>
       </c>
       <c r="J20">
-        <v>1.010517210725959</v>
+        <v>1.027236018130125</v>
       </c>
       <c r="K20">
-        <v>1.0244698327908</v>
+        <v>1.036746121280592</v>
       </c>
       <c r="L20">
-        <v>1.006457684718434</v>
+        <v>1.025375110583736</v>
       </c>
       <c r="M20">
-        <v>1.028964699937525</v>
+        <v>1.047207672601709</v>
       </c>
       <c r="N20">
-        <v>1.007495616028873</v>
+        <v>1.013135413486593</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9771392322718577</v>
+        <v>1.019956511709915</v>
       </c>
       <c r="D21">
-        <v>1.006589006298316</v>
+        <v>1.032581898680727</v>
       </c>
       <c r="E21">
-        <v>0.9882781799433914</v>
+        <v>1.02112614686285</v>
       </c>
       <c r="F21">
-        <v>1.010359972425062</v>
+        <v>1.042898868922368</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042602671760849</v>
+        <v>1.034111849598162</v>
       </c>
       <c r="J21">
-        <v>1.007624853573778</v>
+        <v>1.026659960347775</v>
       </c>
       <c r="K21">
-        <v>1.021446614007979</v>
+        <v>1.036174804240822</v>
       </c>
       <c r="L21">
-        <v>1.003485081562031</v>
+        <v>1.024762533527577</v>
       </c>
       <c r="M21">
-        <v>1.025147694660566</v>
+        <v>1.04645351999493</v>
       </c>
       <c r="N21">
-        <v>1.006531114242417</v>
+        <v>1.012944033048733</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9738301170821609</v>
+        <v>1.01934072319999</v>
       </c>
       <c r="D22">
-        <v>1.004005102820419</v>
+        <v>1.032090617677064</v>
       </c>
       <c r="E22">
-        <v>0.9857152678288092</v>
+        <v>1.020607951001597</v>
       </c>
       <c r="F22">
-        <v>1.007261942219195</v>
+        <v>1.042294056906632</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041523997205675</v>
+        <v>1.033977053120999</v>
       </c>
       <c r="J22">
-        <v>1.005763509518124</v>
+        <v>1.026297618556854</v>
       </c>
       <c r="K22">
-        <v>1.019497633199032</v>
+        <v>1.03581490896691</v>
       </c>
       <c r="L22">
-        <v>1.001575120644552</v>
+        <v>1.02437755437599</v>
       </c>
       <c r="M22">
-        <v>1.022690898372314</v>
+        <v>1.045979013552052</v>
       </c>
       <c r="N22">
-        <v>1.005910417316818</v>
+        <v>1.012823626581052</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.975591496146169</v>
+        <v>1.019667114575401</v>
       </c>
       <c r="D23">
-        <v>1.005380243214559</v>
+        <v>1.032351050239802</v>
       </c>
       <c r="E23">
-        <v>0.9870786266524743</v>
+        <v>1.020882571275296</v>
       </c>
       <c r="F23">
-        <v>1.008910620917575</v>
+        <v>1.042614645474683</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042099431902087</v>
+        <v>1.03404867607698</v>
       </c>
       <c r="J23">
-        <v>1.006754411349545</v>
+        <v>1.026489716763402</v>
       </c>
       <c r="K23">
-        <v>1.020535505126178</v>
+        <v>1.036005760803909</v>
       </c>
       <c r="L23">
-        <v>1.002591618387105</v>
+        <v>1.02458162235528</v>
       </c>
       <c r="M23">
-        <v>1.023998828253621</v>
+        <v>1.04623059017178</v>
       </c>
       <c r="N23">
-        <v>1.006240849823069</v>
+        <v>1.012887463581862</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9823710324240933</v>
+        <v>1.02095318297125</v>
       </c>
       <c r="D24">
-        <v>1.010677561018473</v>
+        <v>1.03337644540704</v>
       </c>
       <c r="E24">
-        <v>0.9923439377696632</v>
+        <v>1.021965604660172</v>
       </c>
       <c r="F24">
-        <v>1.015263488247372</v>
+        <v>1.043877510353479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044286058520693</v>
+        <v>1.034326989823415</v>
       </c>
       <c r="J24">
-        <v>1.010564999895935</v>
+        <v>1.0272456731639</v>
       </c>
       <c r="K24">
-        <v>1.024519725954407</v>
+        <v>1.036755687766798</v>
       </c>
       <c r="L24">
-        <v>1.006506849789479</v>
+        <v>1.025385383349179</v>
       </c>
       <c r="M24">
-        <v>1.029027759083164</v>
+        <v>1.047220310177444</v>
       </c>
       <c r="N24">
-        <v>1.007511551846361</v>
+        <v>1.013138620652269</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9899404111234783</v>
+        <v>1.022447814217772</v>
       </c>
       <c r="D25">
-        <v>1.016598420513356</v>
+        <v>1.034566495551391</v>
       </c>
       <c r="E25">
-        <v>0.9982567230258695</v>
+        <v>1.023226235278996</v>
       </c>
       <c r="F25">
-        <v>1.022368698822235</v>
+        <v>1.045344455604575</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046667635190949</v>
+        <v>1.03464234782153</v>
       </c>
       <c r="J25">
-        <v>1.014811128849661</v>
+        <v>1.028122220566489</v>
       </c>
       <c r="K25">
-        <v>1.028944418040766</v>
+        <v>1.037622906441491</v>
       </c>
       <c r="L25">
-        <v>1.010882161537257</v>
+        <v>1.026318811826916</v>
       </c>
       <c r="M25">
-        <v>1.034629417091464</v>
+        <v>1.048367288419864</v>
       </c>
       <c r="N25">
-        <v>1.008927398935934</v>
+        <v>1.013429720886154</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_88/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_88/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023641669795336</v>
+        <v>0.9957582741921764</v>
       </c>
       <c r="D2">
-        <v>1.035515722885704</v>
+        <v>1.021151915994792</v>
       </c>
       <c r="E2">
-        <v>1.024234739284227</v>
+        <v>1.002826583456977</v>
       </c>
       <c r="F2">
-        <v>1.046515598926637</v>
+        <v>1.027837459576303</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034887709612122</v>
+        <v>1.048448154070883</v>
       </c>
       <c r="J2">
-        <v>1.028820747242331</v>
+        <v>1.01806659898362</v>
       </c>
       <c r="K2">
-        <v>1.038312105317031</v>
+        <v>1.032324230845451</v>
       </c>
       <c r="L2">
-        <v>1.027063837507516</v>
+        <v>1.014246679444059</v>
       </c>
       <c r="M2">
-        <v>1.049280817864134</v>
+        <v>1.0389221325991</v>
       </c>
       <c r="N2">
-        <v>1.013661601214851</v>
+        <v>1.010012755869041</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024509501867758</v>
+        <v>0.999864692125817</v>
       </c>
       <c r="D3">
-        <v>1.036204942319545</v>
+        <v>1.024366342939663</v>
       </c>
       <c r="E3">
-        <v>1.024968729772146</v>
+        <v>1.006065839177315</v>
       </c>
       <c r="F3">
-        <v>1.047366565598113</v>
+        <v>1.031700931674584</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035062272103598</v>
+        <v>1.049674962109649</v>
       </c>
       <c r="J3">
-        <v>1.029327568026764</v>
+        <v>1.020359046450127</v>
       </c>
       <c r="K3">
-        <v>1.038811055226286</v>
+        <v>1.034696662788455</v>
       </c>
       <c r="L3">
-        <v>1.027605074918201</v>
+        <v>1.016621690364963</v>
       </c>
       <c r="M3">
-        <v>1.049943340577621</v>
+        <v>1.041943645162125</v>
       </c>
       <c r="N3">
-        <v>1.01382978519807</v>
+        <v>1.010776911153909</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025071496332558</v>
+        <v>1.002470151130241</v>
       </c>
       <c r="D4">
-        <v>1.036650901360054</v>
+        <v>1.02640569855113</v>
       </c>
       <c r="E4">
-        <v>1.025444460184685</v>
+        <v>1.008127168650511</v>
       </c>
       <c r="F4">
-        <v>1.04791747081863</v>
+        <v>1.034153545786923</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03517355846195</v>
+        <v>1.050439165071606</v>
       </c>
       <c r="J4">
-        <v>1.029655336199618</v>
+        <v>1.021810880557702</v>
       </c>
       <c r="K4">
-        <v>1.039133221108823</v>
+        <v>1.036195542637632</v>
       </c>
       <c r="L4">
-        <v>1.027955415151753</v>
+        <v>1.018128485614078</v>
       </c>
       <c r="M4">
-        <v>1.050371666395979</v>
+        <v>1.043856527440405</v>
       </c>
       <c r="N4">
-        <v>1.01393852491798</v>
+        <v>1.011260783707898</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02530786492205</v>
+        <v>1.003553518983904</v>
       </c>
       <c r="D5">
-        <v>1.036838377918205</v>
+        <v>1.027253590555021</v>
       </c>
       <c r="E5">
-        <v>1.025644644596885</v>
+        <v>1.008985701633163</v>
       </c>
       <c r="F5">
-        <v>1.048149134855375</v>
+        <v>1.03517362870366</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035219943246847</v>
+        <v>1.05075347209748</v>
       </c>
       <c r="J5">
-        <v>1.029793085962322</v>
+        <v>1.022413887826409</v>
       </c>
       <c r="K5">
-        <v>1.039268493550763</v>
+        <v>1.036817208174534</v>
       </c>
       <c r="L5">
-        <v>1.028102726473607</v>
+        <v>1.018754962574832</v>
       </c>
       <c r="M5">
-        <v>1.050551644209011</v>
+        <v>1.044650856765949</v>
       </c>
       <c r="N5">
-        <v>1.013984217948532</v>
+        <v>1.011461735909694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025347558430472</v>
+        <v>1.003734730807452</v>
       </c>
       <c r="D6">
-        <v>1.03686985573534</v>
+        <v>1.02739540850461</v>
       </c>
       <c r="E6">
-        <v>1.025678267378374</v>
+        <v>1.009129388221905</v>
       </c>
       <c r="F6">
-        <v>1.048188035935351</v>
+        <v>1.035344269625128</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03522770797512</v>
+        <v>1.050805840870243</v>
       </c>
       <c r="J6">
-        <v>1.029816212140389</v>
+        <v>1.022514710547073</v>
       </c>
       <c r="K6">
-        <v>1.039291196609197</v>
+        <v>1.036921098252999</v>
       </c>
       <c r="L6">
-        <v>1.028127462314756</v>
+        <v>1.018859747198524</v>
       </c>
       <c r="M6">
-        <v>1.050581857929753</v>
+        <v>1.044783658253421</v>
       </c>
       <c r="N6">
-        <v>1.013991888756953</v>
+        <v>1.011495333837123</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025074654286002</v>
+        <v>1.002484673647302</v>
       </c>
       <c r="D7">
-        <v>1.036653406451367</v>
+        <v>1.026417064926538</v>
       </c>
       <c r="E7">
-        <v>1.025447134324544</v>
+        <v>1.008138671712127</v>
       </c>
       <c r="F7">
-        <v>1.047920566077716</v>
+        <v>1.034167218964366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035174179830526</v>
+        <v>1.050443392055023</v>
       </c>
       <c r="J7">
-        <v>1.029657176992977</v>
+        <v>1.02181896656094</v>
       </c>
       <c r="K7">
-        <v>1.039135029280182</v>
+        <v>1.036203882343383</v>
       </c>
       <c r="L7">
-        <v>1.027957383423286</v>
+        <v>1.018136883795089</v>
       </c>
       <c r="M7">
-        <v>1.050374071625427</v>
+        <v>1.043867179653564</v>
       </c>
       <c r="N7">
-        <v>1.013939135554121</v>
+        <v>1.011263478451556</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023934863882948</v>
+        <v>0.9971570038174512</v>
       </c>
       <c r="D8">
-        <v>1.035748649261907</v>
+        <v>1.022246815273654</v>
       </c>
       <c r="E8">
-        <v>1.024482630342237</v>
+        <v>1.003928643428136</v>
       </c>
       <c r="F8">
-        <v>1.04680312948708</v>
+        <v>1.029153137677542</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034947048523008</v>
+        <v>1.048868972605915</v>
       </c>
       <c r="J8">
-        <v>1.028992066004948</v>
+        <v>1.01884799800648</v>
       </c>
       <c r="K8">
-        <v>1.038480869423264</v>
+        <v>1.033133640935933</v>
       </c>
       <c r="L8">
-        <v>1.027246724907318</v>
+        <v>1.01505566042469</v>
       </c>
       <c r="M8">
-        <v>1.049504796296393</v>
+        <v>1.039952176495749</v>
       </c>
       <c r="N8">
-        <v>1.013718457448211</v>
+        <v>1.010273239018766</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021929908546331</v>
+        <v>0.9873541968620039</v>
       </c>
       <c r="D9">
-        <v>1.034154336249661</v>
+        <v>1.014574869238981</v>
       </c>
       <c r="E9">
-        <v>1.02278917071797</v>
+        <v>0.9962323993117053</v>
       </c>
       <c r="F9">
-        <v>1.044836234691915</v>
+        <v>1.019939729727199</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034534082726626</v>
+        <v>1.045861669061555</v>
       </c>
       <c r="J9">
-        <v>1.027818738336733</v>
+        <v>1.013361552367411</v>
       </c>
       <c r="K9">
-        <v>1.03732294659817</v>
+        <v>1.027435823780783</v>
       </c>
       <c r="L9">
-        <v>1.02599545486541</v>
+        <v>1.009386900404711</v>
       </c>
       <c r="M9">
-        <v>1.04797025442903</v>
+        <v>1.032717375246563</v>
       </c>
       <c r="N9">
-        <v>1.013328950146036</v>
+        <v>1.008444065649014</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020595707599092</v>
+        <v>0.9805118969065755</v>
       </c>
       <c r="D10">
-        <v>1.033091553631536</v>
+        <v>1.009224256992288</v>
       </c>
       <c r="E10">
-        <v>1.021664410349616</v>
+        <v>0.9908972166064388</v>
       </c>
       <c r="F10">
-        <v>1.043526540149133</v>
+        <v>1.013520271750878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034250262658162</v>
+        <v>1.043691109480361</v>
       </c>
       <c r="J10">
-        <v>1.027035703936103</v>
+        <v>1.009520634649216</v>
       </c>
       <c r="K10">
-        <v>1.036547576028559</v>
+        <v>1.023428938237099</v>
       </c>
       <c r="L10">
-        <v>1.025162022566047</v>
+        <v>1.005432792905875</v>
       </c>
       <c r="M10">
-        <v>1.04694546107253</v>
+        <v>1.027649630271132</v>
       </c>
       <c r="N10">
-        <v>1.013068870475084</v>
+        <v>1.007163294641435</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020018578661994</v>
+        <v>0.9774694769664919</v>
       </c>
       <c r="D11">
-        <v>1.032631400560356</v>
+        <v>1.006846971693992</v>
       </c>
       <c r="E11">
-        <v>1.021178396518055</v>
+        <v>0.9885343216427855</v>
       </c>
       <c r="F11">
-        <v>1.042959822731072</v>
+        <v>1.010669301356253</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034125357537085</v>
+        <v>1.042709751011656</v>
       </c>
       <c r="J11">
-        <v>1.026696462386958</v>
+        <v>1.007810547092153</v>
       </c>
       <c r="K11">
-        <v>1.036211037162423</v>
+        <v>1.021640909086407</v>
       </c>
       <c r="L11">
-        <v>1.024801330158779</v>
+        <v>1.003675752243039</v>
       </c>
       <c r="M11">
-        <v>1.046501315385941</v>
+        <v>1.025392776662161</v>
       </c>
       <c r="N11">
-        <v>1.012956161536344</v>
+        <v>1.00659303707965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019804297089977</v>
+        <v>0.9763267974667601</v>
       </c>
       <c r="D12">
-        <v>1.03246048677105</v>
+        <v>1.005954457379384</v>
       </c>
       <c r="E12">
-        <v>1.020998023468486</v>
+        <v>0.9876483301246719</v>
       </c>
       <c r="F12">
-        <v>1.042749378892454</v>
+        <v>1.009599107063246</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034078661166789</v>
+        <v>1.04233879701789</v>
       </c>
       <c r="J12">
-        <v>1.02657042670485</v>
+        <v>1.007167975732676</v>
       </c>
       <c r="K12">
-        <v>1.036085913035204</v>
+        <v>1.020968461647513</v>
       </c>
       <c r="L12">
-        <v>1.024667382622744</v>
+        <v>1.003016057183534</v>
       </c>
       <c r="M12">
-        <v>1.04633628087008</v>
+        <v>1.024544685401051</v>
       </c>
       <c r="N12">
-        <v>1.012914282902814</v>
+        <v>1.00637876014578</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019850257128877</v>
+        <v>0.9765724862154543</v>
       </c>
       <c r="D13">
-        <v>1.032497147989877</v>
+        <v>1.006146340713986</v>
       </c>
       <c r="E13">
-        <v>1.021036707098711</v>
+        <v>0.9878387606826631</v>
       </c>
       <c r="F13">
-        <v>1.042794517055105</v>
+        <v>1.009829183410913</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034088691306822</v>
+        <v>1.042418662405066</v>
       </c>
       <c r="J13">
-        <v>1.026597462956649</v>
+        <v>1.007306148211865</v>
       </c>
       <c r="K13">
-        <v>1.036112757931244</v>
+        <v>1.021113084712773</v>
       </c>
       <c r="L13">
-        <v>1.024696113460672</v>
+        <v>1.003157888292172</v>
       </c>
       <c r="M13">
-        <v>1.046371683980067</v>
+        <v>1.024727053939934</v>
       </c>
       <c r="N13">
-        <v>1.012923266616802</v>
+        <v>1.006424836223927</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020000864240519</v>
+        <v>0.9773752832765195</v>
       </c>
       <c r="D14">
-        <v>1.032617272609291</v>
+        <v>1.006773392098206</v>
       </c>
       <c r="E14">
-        <v>1.021163483671774</v>
+        <v>0.9884612570840825</v>
       </c>
       <c r="F14">
-        <v>1.042942426138344</v>
+        <v>1.010581070612729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034121503737161</v>
+        <v>1.042679220288009</v>
       </c>
       <c r="J14">
-        <v>1.026686044767332</v>
+        <v>1.007757584159145</v>
       </c>
       <c r="K14">
-        <v>1.036200696774945</v>
+        <v>1.021585495531859</v>
       </c>
       <c r="L14">
-        <v>1.024790257400922</v>
+        <v>1.003621367351867</v>
       </c>
       <c r="M14">
-        <v>1.046487674776531</v>
+        <v>1.025322875442106</v>
       </c>
       <c r="N14">
-        <v>1.012952700108741</v>
+        <v>1.006575375639451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020093670193698</v>
+        <v>0.977868225568809</v>
       </c>
       <c r="D15">
-        <v>1.03269128640361</v>
+        <v>1.007158469796707</v>
       </c>
       <c r="E15">
-        <v>1.021241615375542</v>
+        <v>0.9888436849517449</v>
       </c>
       <c r="F15">
-        <v>1.043033565842946</v>
+        <v>1.011042831157762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034141680690873</v>
+        <v>1.042838899861238</v>
       </c>
       <c r="J15">
-        <v>1.026740619498328</v>
+        <v>1.008034742537584</v>
       </c>
       <c r="K15">
-        <v>1.036254863121796</v>
+        <v>1.021875454260845</v>
       </c>
       <c r="L15">
-        <v>1.024848266560297</v>
+        <v>1.003905988100257</v>
       </c>
       <c r="M15">
-        <v>1.046559132759065</v>
+        <v>1.02568867013823</v>
       </c>
       <c r="N15">
-        <v>1.012970833276054</v>
+        <v>1.00666779906107</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02063402226723</v>
+        <v>0.9807120818482494</v>
       </c>
       <c r="D16">
-        <v>1.033122093439982</v>
+        <v>1.00938072228742</v>
       </c>
       <c r="E16">
-        <v>1.021696687010108</v>
+        <v>0.9910528909077523</v>
       </c>
       <c r="F16">
-        <v>1.043564159667016</v>
+        <v>1.013707936644433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034258509937923</v>
+        <v>1.043755348036501</v>
       </c>
       <c r="J16">
-        <v>1.027058214533941</v>
+        <v>1.009633111954455</v>
       </c>
       <c r="K16">
-        <v>1.036569894298962</v>
+        <v>1.023546459220346</v>
       </c>
       <c r="L16">
-        <v>1.025185964627587</v>
+        <v>1.00554843033163</v>
       </c>
       <c r="M16">
-        <v>1.046974929194278</v>
+        <v>1.02779805948993</v>
       </c>
       <c r="N16">
-        <v>1.013076348678038</v>
+        <v>1.007200801866591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020973129451843</v>
+        <v>0.9824742046193128</v>
       </c>
       <c r="D17">
-        <v>1.033392338918958</v>
+        <v>1.010758224236529</v>
       </c>
       <c r="E17">
-        <v>1.021982414296028</v>
+        <v>0.9924242863205698</v>
       </c>
       <c r="F17">
-        <v>1.043897092567674</v>
+        <v>1.015360250670662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034331256499462</v>
+        <v>1.044318965948059</v>
       </c>
       <c r="J17">
-        <v>1.02725738546528</v>
+        <v>1.01062294167419</v>
       </c>
       <c r="K17">
-        <v>1.036767292245621</v>
+        <v>1.024580216063927</v>
       </c>
       <c r="L17">
-        <v>1.025397845259719</v>
+        <v>1.006566462012733</v>
       </c>
       <c r="M17">
-        <v>1.047235640423889</v>
+        <v>1.02910421451572</v>
       </c>
       <c r="N17">
-        <v>1.013142511170633</v>
+        <v>1.007530873145843</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02117098166366</v>
+        <v>0.9834943791402611</v>
       </c>
       <c r="D18">
-        <v>1.033549972164942</v>
+        <v>1.011555895375654</v>
       </c>
       <c r="E18">
-        <v>1.022149171993067</v>
+        <v>0.9932191380671519</v>
       </c>
       <c r="F18">
-        <v>1.044091324104147</v>
+        <v>1.016317173496942</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03437349442946</v>
+        <v>1.044643725559345</v>
       </c>
       <c r="J18">
-        <v>1.027373540815531</v>
+        <v>1.011195785466214</v>
       </c>
       <c r="K18">
-        <v>1.036882354015813</v>
+        <v>1.025178096375069</v>
       </c>
       <c r="L18">
-        <v>1.025521449826854</v>
+        <v>1.007155953636144</v>
       </c>
       <c r="M18">
-        <v>1.047387669845641</v>
+        <v>1.029860072426151</v>
       </c>
       <c r="N18">
-        <v>1.013181093658764</v>
+        <v>1.007721892987163</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021238453736278</v>
+        <v>0.9838409543075967</v>
       </c>
       <c r="D19">
-        <v>1.033603721591615</v>
+        <v>1.011826908318238</v>
       </c>
       <c r="E19">
-        <v>1.022206048597245</v>
+        <v>0.9934893150368251</v>
       </c>
       <c r="F19">
-        <v>1.044157558328754</v>
+        <v>1.016642313403464</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034387863557227</v>
+        <v>1.044753789426695</v>
       </c>
       <c r="J19">
-        <v>1.027413143753637</v>
+        <v>1.01139035517054</v>
       </c>
       <c r="K19">
-        <v>1.036921573985962</v>
+        <v>1.025381103945759</v>
       </c>
       <c r="L19">
-        <v>1.025563598835536</v>
+        <v>1.007356233207702</v>
       </c>
       <c r="M19">
-        <v>1.047439501281946</v>
+        <v>1.030116794658013</v>
       </c>
       <c r="N19">
-        <v>1.01319424775528</v>
+        <v>1.007786773533879</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020936740582841</v>
+        <v>0.9822859403206833</v>
       </c>
       <c r="D20">
-        <v>1.033363343748713</v>
+        <v>1.010611034335908</v>
       </c>
       <c r="E20">
-        <v>1.021951748333884</v>
+        <v>0.992277674663257</v>
       </c>
       <c r="F20">
-        <v>1.043861368135888</v>
+        <v>1.015183684466057</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034323471532906</v>
+        <v>1.044258909105418</v>
       </c>
       <c r="J20">
-        <v>1.027236018130125</v>
+        <v>1.010517210725959</v>
       </c>
       <c r="K20">
-        <v>1.036746121280592</v>
+        <v>1.024469832790799</v>
       </c>
       <c r="L20">
-        <v>1.025375110583736</v>
+        <v>1.006457684718434</v>
       </c>
       <c r="M20">
-        <v>1.047207672601709</v>
+        <v>1.028964699937524</v>
       </c>
       <c r="N20">
-        <v>1.013135413486593</v>
+        <v>1.007495616028873</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019956511709915</v>
+        <v>0.9771392322718571</v>
       </c>
       <c r="D21">
-        <v>1.032581898680727</v>
+        <v>1.006589006298316</v>
       </c>
       <c r="E21">
-        <v>1.02112614686285</v>
+        <v>0.9882781799433904</v>
       </c>
       <c r="F21">
-        <v>1.042898868922368</v>
+        <v>1.010359972425063</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034111849598162</v>
+        <v>1.042602671760849</v>
       </c>
       <c r="J21">
-        <v>1.026659960347775</v>
+        <v>1.007624853573777</v>
       </c>
       <c r="K21">
-        <v>1.036174804240822</v>
+        <v>1.021446614007979</v>
       </c>
       <c r="L21">
-        <v>1.024762533527577</v>
+        <v>1.00348508156203</v>
       </c>
       <c r="M21">
-        <v>1.04645351999493</v>
+        <v>1.025147694660566</v>
       </c>
       <c r="N21">
-        <v>1.012944033048733</v>
+        <v>1.006531114242417</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01934072319999</v>
+        <v>0.9738301170821609</v>
       </c>
       <c r="D22">
-        <v>1.032090617677064</v>
+        <v>1.004005102820419</v>
       </c>
       <c r="E22">
-        <v>1.020607951001597</v>
+        <v>0.9857152678288092</v>
       </c>
       <c r="F22">
-        <v>1.042294056906632</v>
+        <v>1.007261942219195</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033977053120999</v>
+        <v>1.041523997205675</v>
       </c>
       <c r="J22">
-        <v>1.026297618556854</v>
+        <v>1.005763509518124</v>
       </c>
       <c r="K22">
-        <v>1.03581490896691</v>
+        <v>1.019497633199032</v>
       </c>
       <c r="L22">
-        <v>1.02437755437599</v>
+        <v>1.001575120644552</v>
       </c>
       <c r="M22">
-        <v>1.045979013552052</v>
+        <v>1.022690898372314</v>
       </c>
       <c r="N22">
-        <v>1.012823626581052</v>
+        <v>1.005910417316818</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019667114575401</v>
+        <v>0.9755914961461687</v>
       </c>
       <c r="D23">
-        <v>1.032351050239802</v>
+        <v>1.005380243214559</v>
       </c>
       <c r="E23">
-        <v>1.020882571275296</v>
+        <v>0.9870786266524739</v>
       </c>
       <c r="F23">
-        <v>1.042614645474683</v>
+        <v>1.008910620917575</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03404867607698</v>
+        <v>1.042099431902087</v>
       </c>
       <c r="J23">
-        <v>1.026489716763402</v>
+        <v>1.006754411349545</v>
       </c>
       <c r="K23">
-        <v>1.036005760803909</v>
+        <v>1.020535505126178</v>
       </c>
       <c r="L23">
-        <v>1.02458162235528</v>
+        <v>1.002591618387105</v>
       </c>
       <c r="M23">
-        <v>1.04623059017178</v>
+        <v>1.023998828253621</v>
       </c>
       <c r="N23">
-        <v>1.012887463581862</v>
+        <v>1.006240849823069</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02095318297125</v>
+        <v>0.9823710324240933</v>
       </c>
       <c r="D24">
-        <v>1.03337644540704</v>
+        <v>1.010677561018473</v>
       </c>
       <c r="E24">
-        <v>1.021965604660172</v>
+        <v>0.9923439377696632</v>
       </c>
       <c r="F24">
-        <v>1.043877510353479</v>
+        <v>1.015263488247372</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034326989823415</v>
+        <v>1.044286058520693</v>
       </c>
       <c r="J24">
-        <v>1.0272456731639</v>
+        <v>1.010564999895935</v>
       </c>
       <c r="K24">
-        <v>1.036755687766798</v>
+        <v>1.024519725954407</v>
       </c>
       <c r="L24">
-        <v>1.025385383349179</v>
+        <v>1.006506849789479</v>
       </c>
       <c r="M24">
-        <v>1.047220310177444</v>
+        <v>1.029027759083163</v>
       </c>
       <c r="N24">
-        <v>1.013138620652269</v>
+        <v>1.007511551846361</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022447814217772</v>
+        <v>0.9899404111234776</v>
       </c>
       <c r="D25">
-        <v>1.034566495551391</v>
+        <v>1.016598420513356</v>
       </c>
       <c r="E25">
-        <v>1.023226235278996</v>
+        <v>0.9982567230258691</v>
       </c>
       <c r="F25">
-        <v>1.045344455604575</v>
+        <v>1.022368698822235</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03464234782153</v>
+        <v>1.046667635190949</v>
       </c>
       <c r="J25">
-        <v>1.028122220566489</v>
+        <v>1.01481112884966</v>
       </c>
       <c r="K25">
-        <v>1.037622906441491</v>
+        <v>1.028944418040766</v>
       </c>
       <c r="L25">
-        <v>1.026318811826916</v>
+        <v>1.010882161537257</v>
       </c>
       <c r="M25">
-        <v>1.048367288419864</v>
+        <v>1.034629417091464</v>
       </c>
       <c r="N25">
-        <v>1.013429720886154</v>
+        <v>1.008927398935934</v>
       </c>
     </row>
   </sheetData>
